--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi_expanded_2tocode_Mail_Lee.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi_expanded_2tocode_Mail_Lee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2click1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 4 - career\4.3.1 jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154718E4-F9C5-6343-99CB-92FF6672D48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6CF21-DA5D-402A-9600-DEE54D347E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1372">
   <si>
     <t>CareerStringID</t>
   </si>
@@ -4895,10 +4895,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>화학고업상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>당 기계공업부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4936,13 +4932,31 @@
   <si>
     <t>당 정치위</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>only position</t>
+  </si>
+  <si>
+    <t>내각</t>
+  </si>
+  <si>
+    <t>부총리</t>
+  </si>
+  <si>
+    <t>농업성</t>
+  </si>
+  <si>
+    <t>최고인민회의 제12기 법제위원</t>
+  </si>
+  <si>
+    <t>최고인민회의 제12기 법제위원회</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5353,23 +5367,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J667" sqref="J667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="11.02734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63.76171875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="11.02734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.34375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.3125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.67578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.609375" style="4"/>
+    <col min="1" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.7265625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="11" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="5">
         <v>147.1</v>
       </c>
@@ -5427,7 +5441,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>147.19999999999999</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>147.30000000000001</v>
       </c>
@@ -5485,7 +5499,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>147.4</v>
       </c>
@@ -5514,7 +5528,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>186.1</v>
       </c>
@@ -5540,7 +5554,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>186.2</v>
       </c>
@@ -5569,7 +5583,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>193.1</v>
       </c>
@@ -5595,7 +5609,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>193.2</v>
       </c>
@@ -5621,7 +5635,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>204.1</v>
       </c>
@@ -5644,7 +5658,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
         <v>204.2</v>
       </c>
@@ -5667,7 +5681,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>233.1</v>
       </c>
@@ -5693,7 +5707,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="5">
         <v>233.2</v>
       </c>
@@ -5719,7 +5733,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>264.10000000000002</v>
       </c>
@@ -5745,7 +5759,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>264.2</v>
       </c>
@@ -5771,7 +5785,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>278.10000000000002</v>
       </c>
@@ -5797,7 +5811,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>278.2</v>
       </c>
@@ -5823,7 +5837,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>286.10000000000002</v>
       </c>
@@ -5849,7 +5863,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>286.2</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>299.10000000000002</v>
       </c>
@@ -5901,7 +5915,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>299.2</v>
       </c>
@@ -5927,7 +5941,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>325.10000000000002</v>
       </c>
@@ -5953,7 +5967,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>325.2</v>
       </c>
@@ -5979,7 +5993,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>328.1</v>
       </c>
@@ -6005,7 +6019,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>328.2</v>
       </c>
@@ -6031,7 +6045,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>341.1</v>
       </c>
@@ -6057,7 +6071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>341.2</v>
       </c>
@@ -6083,7 +6097,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>356.1</v>
       </c>
@@ -6109,7 +6123,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>356.2</v>
       </c>
@@ -6135,7 +6149,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <v>372.1</v>
       </c>
@@ -6158,7 +6172,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>372.2</v>
       </c>
@@ -6181,7 +6195,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <v>396.1</v>
       </c>
@@ -6207,7 +6221,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>396.2</v>
       </c>
@@ -6233,7 +6247,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="5">
         <v>405.1</v>
       </c>
@@ -6259,7 +6273,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="5">
         <v>405.2</v>
       </c>
@@ -6285,7 +6299,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="5">
         <v>416.1</v>
       </c>
@@ -6311,7 +6325,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5">
         <v>416.2</v>
       </c>
@@ -6337,7 +6351,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5">
         <v>417.1</v>
       </c>
@@ -6363,7 +6377,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="5">
         <v>417.2</v>
       </c>
@@ -6383,7 +6397,7 @@
         <v>372</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>1064</v>
@@ -6392,7 +6406,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="5">
         <v>418.1</v>
       </c>
@@ -6418,7 +6432,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="5">
         <v>418.2</v>
       </c>
@@ -6444,7 +6458,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="5">
         <v>422.1</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="5">
         <v>422.2</v>
       </c>
@@ -6496,7 +6510,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="5">
         <v>454.1</v>
       </c>
@@ -6519,7 +6533,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="5">
         <v>454.2</v>
       </c>
@@ -6542,7 +6556,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="5">
         <v>456.1</v>
       </c>
@@ -6565,7 +6579,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="5">
         <v>456.2</v>
       </c>
@@ -6582,13 +6596,13 @@
         <v>372</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="5">
         <v>459.1</v>
       </c>
@@ -6614,7 +6628,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="5">
         <v>459.2</v>
       </c>
@@ -6640,7 +6654,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="5">
         <v>460.1</v>
       </c>
@@ -6666,7 +6680,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="5">
         <v>460.2</v>
       </c>
@@ -6689,7 +6703,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="5">
         <v>479.1</v>
       </c>
@@ -6715,7 +6729,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="5">
         <v>479.2</v>
       </c>
@@ -6744,7 +6758,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="5">
         <v>480.1</v>
       </c>
@@ -6770,7 +6784,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="5">
         <v>480.2</v>
       </c>
@@ -6796,7 +6810,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="5">
         <v>481.1</v>
       </c>
@@ -6822,7 +6836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="5">
         <v>481.2</v>
       </c>
@@ -6848,7 +6862,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="5">
         <v>482.1</v>
       </c>
@@ -6874,7 +6888,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="5">
         <v>482.2</v>
       </c>
@@ -6900,7 +6914,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="5">
         <v>490.1</v>
       </c>
@@ -6926,7 +6940,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="5">
         <v>490.2</v>
       </c>
@@ -6952,7 +6966,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="5">
         <v>491.1</v>
       </c>
@@ -6978,7 +6992,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="5">
         <v>491.2</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="5">
         <v>492.1</v>
       </c>
@@ -7030,7 +7044,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="5">
         <v>492.2</v>
       </c>
@@ -7056,7 +7070,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="5">
         <v>495.1</v>
       </c>
@@ -7082,7 +7096,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="5">
         <v>495.2</v>
       </c>
@@ -7108,7 +7122,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="5">
         <v>496.1</v>
       </c>
@@ -7134,7 +7148,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="5">
         <v>496.2</v>
       </c>
@@ -7160,7 +7174,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="5">
         <v>497.1</v>
       </c>
@@ -7186,7 +7200,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="5">
         <v>497.2</v>
       </c>
@@ -7212,7 +7226,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="5">
         <v>510.1</v>
       </c>
@@ -7238,7 +7252,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="5">
         <v>510.2</v>
       </c>
@@ -7264,7 +7278,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="5">
         <v>520.1</v>
       </c>
@@ -7290,7 +7304,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="5">
         <v>520.20000000000005</v>
       </c>
@@ -7316,7 +7330,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="5">
         <v>521.1</v>
       </c>
@@ -7336,7 +7350,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="5">
         <v>521.20000000000005</v>
       </c>
@@ -7356,7 +7370,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="5">
         <v>521.29999999999995</v>
       </c>
@@ -7376,7 +7390,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="5">
         <v>531.1</v>
       </c>
@@ -7399,7 +7413,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="5">
         <v>531.20000000000005</v>
       </c>
@@ -7422,7 +7436,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="5">
         <v>532.1</v>
       </c>
@@ -7445,7 +7459,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="5">
         <v>532.20000000000005</v>
       </c>
@@ -7468,7 +7482,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="5">
         <v>535.1</v>
       </c>
@@ -7491,7 +7505,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="5">
         <v>535.20000000000005</v>
       </c>
@@ -7514,7 +7528,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="5">
         <v>577.1</v>
       </c>
@@ -7540,7 +7554,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="5">
         <v>577.20000000000005</v>
       </c>
@@ -7566,7 +7580,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="5">
         <v>630.1</v>
       </c>
@@ -7592,7 +7606,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="5">
         <v>630.20000000000005</v>
       </c>
@@ -7618,7 +7632,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="5">
         <v>632.1</v>
       </c>
@@ -7644,7 +7658,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="5">
         <v>632.20000000000005</v>
       </c>
@@ -7670,7 +7684,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="5">
         <v>633.1</v>
       </c>
@@ -7696,7 +7710,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="5">
         <v>633.20000000000005</v>
       </c>
@@ -7722,7 +7736,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="5">
         <v>637.1</v>
       </c>
@@ -7748,7 +7762,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="5">
         <v>637.20000000000005</v>
       </c>
@@ -7774,7 +7788,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="5">
         <v>640.1</v>
       </c>
@@ -7800,7 +7814,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="5">
         <v>640.20000000000005</v>
       </c>
@@ -7826,7 +7840,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="5">
         <v>641.1</v>
       </c>
@@ -7852,7 +7866,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="5">
         <v>641.20000000000005</v>
       </c>
@@ -7878,7 +7892,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="5">
         <v>641.29999999999995</v>
       </c>
@@ -7904,7 +7918,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="5">
         <v>654.1</v>
       </c>
@@ -7930,7 +7944,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="5">
         <v>654.20000000000005</v>
       </c>
@@ -7956,7 +7970,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="5">
         <v>661.1</v>
       </c>
@@ -7982,7 +7996,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>661.2</v>
       </c>
@@ -8008,7 +8022,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>679.1</v>
       </c>
@@ -8034,7 +8048,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>679.2</v>
       </c>
@@ -8060,7 +8074,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>708.1</v>
       </c>
@@ -8086,7 +8100,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>708.2</v>
       </c>
@@ -8112,7 +8126,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <v>710.1</v>
       </c>
@@ -8138,7 +8152,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>710.2</v>
       </c>
@@ -8164,7 +8178,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="5">
         <v>711.1</v>
       </c>
@@ -8190,7 +8204,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="5">
         <v>711.2</v>
       </c>
@@ -8216,7 +8230,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <v>711.3</v>
       </c>
@@ -8242,7 +8256,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>712.1</v>
       </c>
@@ -8268,7 +8282,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <v>712.2</v>
       </c>
@@ -8294,7 +8308,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>713.1</v>
       </c>
@@ -8320,7 +8334,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <v>713.2</v>
       </c>
@@ -8346,7 +8360,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>713.3</v>
       </c>
@@ -8372,7 +8386,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <v>714.1</v>
       </c>
@@ -8398,7 +8412,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>714.2</v>
       </c>
@@ -8424,7 +8438,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <v>714.3</v>
       </c>
@@ -8450,7 +8464,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>715.1</v>
       </c>
@@ -8476,7 +8490,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <v>715.2</v>
       </c>
@@ -8502,7 +8516,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>715.3</v>
       </c>
@@ -8528,7 +8542,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <v>719.1</v>
       </c>
@@ -8554,7 +8568,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>719.2</v>
       </c>
@@ -8580,7 +8594,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" s="5">
         <v>720.1</v>
       </c>
@@ -8606,7 +8620,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>720.2</v>
       </c>
@@ -8632,7 +8646,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" s="5">
         <v>721.1</v>
       </c>
@@ -8658,7 +8672,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="5">
         <v>721.2</v>
       </c>
@@ -8684,7 +8698,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" s="5">
         <v>722.1</v>
       </c>
@@ -8710,7 +8724,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" s="5">
         <v>722.2</v>
       </c>
@@ -8736,7 +8750,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="5">
         <v>722.3</v>
       </c>
@@ -8762,7 +8776,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" s="5">
         <v>723.1</v>
       </c>
@@ -8788,7 +8802,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" s="5">
         <v>723.2</v>
       </c>
@@ -8814,7 +8828,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" s="5">
         <v>723.3</v>
       </c>
@@ -8840,7 +8854,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="5">
         <v>725.1</v>
       </c>
@@ -8866,7 +8880,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="5">
         <v>725.2</v>
       </c>
@@ -8892,7 +8906,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="5">
         <v>726.1</v>
       </c>
@@ -8918,7 +8932,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" s="5">
         <v>726.2</v>
       </c>
@@ -8944,7 +8958,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="5">
         <v>727.1</v>
       </c>
@@ -8970,7 +8984,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" s="5">
         <v>727.2</v>
       </c>
@@ -8996,7 +9010,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" s="5">
         <v>729.1</v>
       </c>
@@ -9022,7 +9036,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" s="5">
         <v>729.2</v>
       </c>
@@ -9048,7 +9062,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" s="5">
         <v>749.1</v>
       </c>
@@ -9074,7 +9088,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="5">
         <v>749.2</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="5">
         <v>753.1</v>
       </c>
@@ -9126,7 +9140,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="5">
         <v>753.2</v>
       </c>
@@ -9152,7 +9166,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="5">
         <v>765.1</v>
       </c>
@@ -9175,7 +9189,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="5">
         <v>765.2</v>
       </c>
@@ -9198,7 +9212,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" s="5">
         <v>768.1</v>
       </c>
@@ -9215,13 +9229,13 @@
         <v>525</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" s="5">
         <v>768.2</v>
       </c>
@@ -9238,7 +9252,7 @@
         <v>372</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>1044</v>
@@ -9247,7 +9261,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" s="5">
         <v>768.3</v>
       </c>
@@ -9264,7 +9278,7 @@
         <v>372</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>1062</v>
@@ -9273,7 +9287,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" s="5">
         <v>770.1</v>
       </c>
@@ -9299,7 +9313,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" s="5">
         <v>770.2</v>
       </c>
@@ -9325,7 +9339,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" s="5">
         <v>770.3</v>
       </c>
@@ -9351,7 +9365,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" s="5">
         <v>772.1</v>
       </c>
@@ -9377,7 +9391,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" s="5">
         <v>772.2</v>
       </c>
@@ -9403,7 +9417,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="5">
         <v>773.1</v>
       </c>
@@ -9429,7 +9443,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="5">
         <v>773.2</v>
       </c>
@@ -9455,7 +9469,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="5">
         <v>775.1</v>
       </c>
@@ -9481,7 +9495,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="5">
         <v>775.2</v>
       </c>
@@ -9507,7 +9521,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="5">
         <v>798.1</v>
       </c>
@@ -9533,7 +9547,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" s="5">
         <v>798.2</v>
       </c>
@@ -9559,7 +9573,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" s="5">
         <v>808.1</v>
       </c>
@@ -9585,7 +9599,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" s="5">
         <v>808.2</v>
       </c>
@@ -9611,7 +9625,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" s="5">
         <v>828.1</v>
       </c>
@@ -9637,7 +9651,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" s="5">
         <v>828.2</v>
       </c>
@@ -9663,7 +9677,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" s="5">
         <v>867.1</v>
       </c>
@@ -9689,7 +9703,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" s="5">
         <v>867.2</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" s="5">
         <v>921.1</v>
       </c>
@@ -9741,7 +9755,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" s="5">
         <v>921.2</v>
       </c>
@@ -9767,7 +9781,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" s="5">
         <v>927.1</v>
       </c>
@@ -9793,7 +9807,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" s="5">
         <v>927.2</v>
       </c>
@@ -9819,7 +9833,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" s="5">
         <v>945.1</v>
       </c>
@@ -9845,7 +9859,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" s="5">
         <v>945.2</v>
       </c>
@@ -9871,7 +9885,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" s="5">
         <v>952.1</v>
       </c>
@@ -9897,7 +9911,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" s="5">
         <v>952.2</v>
       </c>
@@ -9923,7 +9937,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" s="5">
         <v>959.1</v>
       </c>
@@ -9949,7 +9963,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" s="5">
         <v>959.2</v>
       </c>
@@ -9975,7 +9989,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" s="5">
         <v>963.1</v>
       </c>
@@ -10001,7 +10015,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" s="5">
         <v>963.2</v>
       </c>
@@ -10027,7 +10041,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" s="5">
         <v>968.1</v>
       </c>
@@ -10053,7 +10067,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" s="5">
         <v>968.2</v>
       </c>
@@ -10079,7 +10093,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" s="5">
         <v>1015.1</v>
       </c>
@@ -10105,7 +10119,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" s="5">
         <v>1015.2</v>
       </c>
@@ -10131,7 +10145,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" s="5">
         <v>1019.1</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" s="5">
         <v>1019.2</v>
       </c>
@@ -10183,7 +10197,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" s="5">
         <v>1023.1</v>
       </c>
@@ -10209,7 +10223,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" s="5">
         <v>1023.2</v>
       </c>
@@ -10235,7 +10249,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" s="5">
         <v>1024.0999999999999</v>
       </c>
@@ -10261,7 +10275,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" s="5">
         <v>1024.2</v>
       </c>
@@ -10287,7 +10301,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" s="5">
         <v>1025.0999999999999</v>
       </c>
@@ -10313,7 +10327,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" s="5">
         <v>1025.2</v>
       </c>
@@ -10339,7 +10353,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" s="5">
         <v>1027.0999999999999</v>
       </c>
@@ -10365,7 +10379,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" s="5">
         <v>1027.2</v>
       </c>
@@ -10391,7 +10405,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" s="5">
         <v>1029.0999999999999</v>
       </c>
@@ -10417,7 +10431,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" s="5">
         <v>1029.2</v>
       </c>
@@ -10443,7 +10457,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" s="5">
         <v>1031.0999999999999</v>
       </c>
@@ -10469,7 +10483,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" s="5">
         <v>1031.2</v>
       </c>
@@ -10495,7 +10509,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" s="5">
         <v>1031.3</v>
       </c>
@@ -10521,7 +10535,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" s="5">
         <v>1037.0999999999999</v>
       </c>
@@ -10544,7 +10558,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" s="5">
         <v>1037.2</v>
       </c>
@@ -10570,7 +10584,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" s="5">
         <v>1037.3</v>
       </c>
@@ -10596,7 +10610,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" s="5">
         <v>1041.0999999999999</v>
       </c>
@@ -10622,7 +10636,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" s="5">
         <v>1041.2</v>
       </c>
@@ -10648,7 +10662,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" s="5">
         <v>1044.0999999999999</v>
       </c>
@@ -10674,7 +10688,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" s="5">
         <v>1044.2</v>
       </c>
@@ -10700,7 +10714,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" s="5">
         <v>1046.0999999999999</v>
       </c>
@@ -10726,7 +10740,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" s="5">
         <v>1046.2</v>
       </c>
@@ -10752,7 +10766,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" s="5">
         <v>1051.0999999999999</v>
       </c>
@@ -10775,7 +10789,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" s="5">
         <v>1051.2</v>
       </c>
@@ -10798,7 +10812,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" s="5">
         <v>1052.0999999999999</v>
       </c>
@@ -10821,7 +10835,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213" s="5">
         <v>1052.2</v>
       </c>
@@ -10844,7 +10858,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" s="5">
         <v>1097.0999999999999</v>
       </c>
@@ -10870,7 +10884,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215" s="5">
         <v>1097.2</v>
       </c>
@@ -10896,7 +10910,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" s="5">
         <v>1160.0999999999999</v>
       </c>
@@ -10922,7 +10936,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217" s="5">
         <v>1160.2</v>
       </c>
@@ -10948,7 +10962,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218" s="5">
         <v>1176.0999999999999</v>
       </c>
@@ -10974,7 +10988,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" s="5">
         <v>1176.2</v>
       </c>
@@ -11000,7 +11014,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" s="5">
         <v>1179.0999999999999</v>
       </c>
@@ -11026,7 +11040,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221" s="5">
         <v>1179.2</v>
       </c>
@@ -11052,7 +11066,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222" s="5">
         <v>1209.0999999999999</v>
       </c>
@@ -11078,7 +11092,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223" s="5">
         <v>1209.2</v>
       </c>
@@ -11104,7 +11118,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224" s="5">
         <v>1214.0999999999999</v>
       </c>
@@ -11127,7 +11141,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225" s="5">
         <v>1214.2</v>
       </c>
@@ -11150,7 +11164,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226" s="5">
         <v>1254.0999999999999</v>
       </c>
@@ -11173,7 +11187,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227" s="5">
         <v>1254.2</v>
       </c>
@@ -11199,7 +11213,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228" s="5">
         <v>1254.3</v>
       </c>
@@ -11225,7 +11239,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229" s="5">
         <v>1256.0999999999999</v>
       </c>
@@ -11251,7 +11265,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230" s="5">
         <v>1256.2</v>
       </c>
@@ -11277,7 +11291,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231" s="5">
         <v>1260.0999999999999</v>
       </c>
@@ -11303,7 +11317,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232" s="5">
         <v>1260.2</v>
       </c>
@@ -11329,7 +11343,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233" s="5">
         <v>1314.1</v>
       </c>
@@ -11355,7 +11369,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234" s="5">
         <v>1314.2</v>
       </c>
@@ -11381,7 +11395,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235" s="5">
         <v>1349.1</v>
       </c>
@@ -11407,7 +11421,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236" s="5">
         <v>1349.2</v>
       </c>
@@ -11433,7 +11447,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237" s="5">
         <v>1369.1</v>
       </c>
@@ -11459,7 +11473,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238" s="5">
         <v>1369.2</v>
       </c>
@@ -11485,7 +11499,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239" s="5">
         <v>1376.1</v>
       </c>
@@ -11511,7 +11525,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240" s="5">
         <v>1376.2</v>
       </c>
@@ -11537,7 +11551,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10">
       <c r="A241" s="5">
         <v>1419.1</v>
       </c>
@@ -11563,7 +11577,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10">
       <c r="A242" s="5">
         <v>1419.2</v>
       </c>
@@ -11589,7 +11603,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10">
       <c r="A243" s="5">
         <v>1419.3</v>
       </c>
@@ -11615,7 +11629,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10">
       <c r="A244" s="5">
         <v>1430.1</v>
       </c>
@@ -11641,7 +11655,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10">
       <c r="A245" s="5">
         <v>1430.2</v>
       </c>
@@ -11667,7 +11681,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10">
       <c r="A246" s="5">
         <v>1437.1</v>
       </c>
@@ -11696,7 +11710,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10">
       <c r="A247" s="5">
         <v>1437.2</v>
       </c>
@@ -11725,7 +11739,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10">
       <c r="A248" s="5">
         <v>1458.1</v>
       </c>
@@ -11751,7 +11765,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10">
       <c r="A249" s="5">
         <v>1458.2</v>
       </c>
@@ -11774,7 +11788,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10">
       <c r="A250" s="5">
         <v>1467.1</v>
       </c>
@@ -11800,7 +11814,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10">
       <c r="A251" s="5">
         <v>1467.2</v>
       </c>
@@ -11826,7 +11840,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10">
       <c r="A252" s="5">
         <v>1469.1</v>
       </c>
@@ -11852,7 +11866,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10">
       <c r="A253" s="5">
         <v>1469.2</v>
       </c>
@@ -11878,7 +11892,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10">
       <c r="A254" s="5">
         <v>1511.1</v>
       </c>
@@ -11904,7 +11918,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10">
       <c r="A255" s="5">
         <v>1511.2</v>
       </c>
@@ -11930,7 +11944,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10">
       <c r="A256" s="5">
         <v>1511.3</v>
       </c>
@@ -11953,7 +11967,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257" s="5">
         <v>1537.1</v>
       </c>
@@ -11976,7 +11990,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258" s="5">
         <v>1537.2</v>
       </c>
@@ -12002,7 +12016,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259" s="5">
         <v>1538.1</v>
       </c>
@@ -12028,7 +12042,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260" s="5">
         <v>1538.2</v>
       </c>
@@ -12054,7 +12068,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261" s="5">
         <v>1539.1</v>
       </c>
@@ -12080,7 +12094,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262" s="5">
         <v>1539.2</v>
       </c>
@@ -12106,7 +12120,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263" s="5">
         <v>1539.3</v>
       </c>
@@ -12132,7 +12146,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264" s="5">
         <v>1542.1</v>
       </c>
@@ -12158,7 +12172,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265" s="5">
         <v>1542.2</v>
       </c>
@@ -12184,7 +12198,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266" s="5">
         <v>1543.1</v>
       </c>
@@ -12210,7 +12224,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267" s="5">
         <v>1543.2</v>
       </c>
@@ -12236,7 +12250,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268" s="5">
         <v>1574.1</v>
       </c>
@@ -12262,7 +12276,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269" s="5">
         <v>1574.2</v>
       </c>
@@ -12288,7 +12302,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270" s="5">
         <v>1651.1</v>
       </c>
@@ -12314,7 +12328,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271" s="5">
         <v>1651.2</v>
       </c>
@@ -12340,7 +12354,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272" s="5">
         <v>1652.1</v>
       </c>
@@ -12366,7 +12380,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10">
       <c r="A273" s="5">
         <v>1652.2</v>
       </c>
@@ -12392,7 +12406,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10">
       <c r="A274" s="5">
         <v>1656.1</v>
       </c>
@@ -12418,7 +12432,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10">
       <c r="A275" s="5">
         <v>1656.2</v>
       </c>
@@ -12444,7 +12458,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10">
       <c r="A276" s="5">
         <v>1665.1</v>
       </c>
@@ -12470,7 +12484,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10">
       <c r="A277" s="5">
         <v>1665.2</v>
       </c>
@@ -12496,7 +12510,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10">
       <c r="A278" s="5">
         <v>1666.1</v>
       </c>
@@ -12522,7 +12536,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10">
       <c r="A279" s="5">
         <v>1666.2</v>
       </c>
@@ -12548,7 +12562,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10">
       <c r="A280" s="5">
         <v>1754.1</v>
       </c>
@@ -12574,7 +12588,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10">
       <c r="A281" s="5">
         <v>1754.2</v>
       </c>
@@ -12600,7 +12614,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10">
       <c r="A282" s="5">
         <v>1766.1</v>
       </c>
@@ -12623,7 +12637,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10">
       <c r="A283" s="5">
         <v>1766.2</v>
       </c>
@@ -12646,7 +12660,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10">
       <c r="A284" s="5">
         <v>1767.1</v>
       </c>
@@ -12669,7 +12683,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10">
       <c r="A285" s="5">
         <v>1767.2</v>
       </c>
@@ -12692,7 +12706,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10">
       <c r="A286" s="5">
         <v>1783.1</v>
       </c>
@@ -12721,7 +12735,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10">
       <c r="A287" s="5">
         <v>1783.2</v>
       </c>
@@ -12750,7 +12764,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10">
       <c r="A288" s="5">
         <v>1784.1</v>
       </c>
@@ -12776,7 +12790,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10">
       <c r="A289" s="5">
         <v>1784.2</v>
       </c>
@@ -12802,7 +12816,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10">
       <c r="A290" s="5">
         <v>1793.1</v>
       </c>
@@ -12828,7 +12842,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10">
       <c r="A291" s="5">
         <v>1793.2</v>
       </c>
@@ -12854,7 +12868,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10">
       <c r="A292" s="5">
         <v>1797.1</v>
       </c>
@@ -12878,7 +12892,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10">
       <c r="A293" s="5">
         <v>1797.2</v>
       </c>
@@ -12902,7 +12916,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10">
       <c r="A294" s="5">
         <v>1797.3</v>
       </c>
@@ -12926,7 +12940,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10">
       <c r="A295" s="5">
         <v>1821.1</v>
       </c>
@@ -12953,7 +12967,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10">
       <c r="A296" s="5">
         <v>1821.2</v>
       </c>
@@ -12980,7 +12994,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10">
       <c r="A297" s="5">
         <v>1851.1</v>
       </c>
@@ -13006,7 +13020,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10">
       <c r="A298" s="5">
         <v>1851.2</v>
       </c>
@@ -13032,7 +13046,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10">
       <c r="A299" s="5">
         <v>1859.1</v>
       </c>
@@ -13058,7 +13072,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10">
       <c r="A300" s="5">
         <v>1859.2</v>
       </c>
@@ -13081,7 +13095,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10">
       <c r="A301" s="5">
         <v>1860.1</v>
       </c>
@@ -13107,7 +13121,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10">
       <c r="A302" s="5">
         <v>1860.2</v>
       </c>
@@ -13130,7 +13144,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10">
       <c r="A303" s="5">
         <v>1861.1</v>
       </c>
@@ -13156,7 +13170,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10">
       <c r="A304" s="5">
         <v>1861.2</v>
       </c>
@@ -13182,7 +13196,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10">
       <c r="A305" s="5">
         <v>1862.1</v>
       </c>
@@ -13208,7 +13222,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10">
       <c r="A306" s="5">
         <v>1862.2</v>
       </c>
@@ -13234,7 +13248,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10">
       <c r="A307" s="5">
         <v>1888.1</v>
       </c>
@@ -13260,7 +13274,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10">
       <c r="A308" s="5">
         <v>1888.2</v>
       </c>
@@ -13286,7 +13300,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10">
       <c r="A309" s="5">
         <v>1900.1</v>
       </c>
@@ -13312,7 +13326,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10">
       <c r="A310" s="5">
         <v>1900.2</v>
       </c>
@@ -13338,7 +13352,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10">
       <c r="A311" s="5">
         <v>1901.1</v>
       </c>
@@ -13364,7 +13378,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10">
       <c r="A312" s="5">
         <v>1901.2</v>
       </c>
@@ -13390,7 +13404,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10">
       <c r="A313" s="5">
         <v>1902.1</v>
       </c>
@@ -13416,7 +13430,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10">
       <c r="A314" s="5">
         <v>1902.2</v>
       </c>
@@ -13442,7 +13456,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10">
       <c r="A315" s="5">
         <v>1903.1</v>
       </c>
@@ -13468,7 +13482,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10">
       <c r="A316" s="5">
         <v>1903.2</v>
       </c>
@@ -13494,7 +13508,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10">
       <c r="A317" s="5">
         <v>1904.1</v>
       </c>
@@ -13520,7 +13534,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10">
       <c r="A318" s="5">
         <v>1904.2</v>
       </c>
@@ -13546,7 +13560,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10">
       <c r="A319" s="5">
         <v>1905.1</v>
       </c>
@@ -13572,7 +13586,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10">
       <c r="A320" s="5">
         <v>1905.2</v>
       </c>
@@ -13598,7 +13612,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10">
       <c r="A321" s="5">
         <v>1906.1</v>
       </c>
@@ -13624,7 +13638,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10">
       <c r="A322" s="5">
         <v>1906.2</v>
       </c>
@@ -13649,7 +13663,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10">
       <c r="A323" s="5">
         <v>1907.1</v>
       </c>
@@ -13675,7 +13689,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10">
       <c r="A324" s="5">
         <v>1907.2</v>
       </c>
@@ -13701,7 +13715,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10">
       <c r="A325" s="5">
         <v>1908.1</v>
       </c>
@@ -13727,7 +13741,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10">
       <c r="A326" s="5">
         <v>1908.2</v>
       </c>
@@ -13753,7 +13767,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10">
       <c r="A327" s="5">
         <v>1909.1</v>
       </c>
@@ -13779,7 +13793,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10">
       <c r="A328" s="5">
         <v>1909.2</v>
       </c>
@@ -13805,7 +13819,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10">
       <c r="A329" s="5">
         <v>1910.1</v>
       </c>
@@ -13831,7 +13845,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10">
       <c r="A330" s="5">
         <v>1910.2</v>
       </c>
@@ -13857,7 +13871,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10">
       <c r="A331" s="5">
         <v>1911.1</v>
       </c>
@@ -13883,7 +13897,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10">
       <c r="A332" s="5">
         <v>1911.2</v>
       </c>
@@ -13910,7 +13924,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10">
       <c r="A333" s="5">
         <v>1912.1</v>
       </c>
@@ -13936,7 +13950,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10">
       <c r="A334" s="5">
         <v>1912.2</v>
       </c>
@@ -13962,7 +13976,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10">
       <c r="A335" s="5">
         <v>1917.1</v>
       </c>
@@ -13988,7 +14002,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10">
       <c r="A336" s="5">
         <v>1917.2</v>
       </c>
@@ -14014,7 +14028,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10">
       <c r="A337" s="5">
         <v>1951.1</v>
       </c>
@@ -14041,7 +14055,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10">
       <c r="A338" s="5">
         <v>1951.2</v>
       </c>
@@ -14068,7 +14082,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10">
       <c r="A339" s="5">
         <v>1983.1</v>
       </c>
@@ -14094,7 +14108,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10">
       <c r="A340" s="5">
         <v>1983.2</v>
       </c>
@@ -14120,7 +14134,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10">
       <c r="A341" s="5">
         <v>2011.1</v>
       </c>
@@ -14143,7 +14157,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10">
       <c r="A342" s="5">
         <v>2011.2</v>
       </c>
@@ -14166,7 +14180,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10">
       <c r="A343" s="5">
         <v>2012.1</v>
       </c>
@@ -14186,7 +14200,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10">
       <c r="A344" s="5">
         <v>2012.2</v>
       </c>
@@ -14206,7 +14220,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10">
       <c r="A345" s="5">
         <v>2040.1</v>
       </c>
@@ -14233,7 +14247,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10">
       <c r="A346" s="5">
         <v>2040.2</v>
       </c>
@@ -14260,7 +14274,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10">
       <c r="A347" s="5">
         <v>2110.1</v>
       </c>
@@ -14287,7 +14301,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10">
       <c r="A348" s="5">
         <v>2110.1999999999998</v>
       </c>
@@ -14314,7 +14328,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10">
       <c r="A349" s="5">
         <v>2180.1</v>
       </c>
@@ -14340,7 +14354,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10">
       <c r="A350" s="5">
         <v>2180.1999999999998</v>
       </c>
@@ -14366,7 +14380,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10">
       <c r="A351" s="5">
         <v>2186.1</v>
       </c>
@@ -14392,7 +14406,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10">
       <c r="A352" s="5">
         <v>2186.1999999999998</v>
       </c>
@@ -14418,7 +14432,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10">
       <c r="A353" s="5">
         <v>2200.1</v>
       </c>
@@ -14447,7 +14461,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10">
       <c r="A354" s="5">
         <v>2200.1999999999998</v>
       </c>
@@ -14473,7 +14487,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10">
       <c r="A355" s="5">
         <v>2213.1</v>
       </c>
@@ -14502,7 +14516,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10">
       <c r="A356" s="5">
         <v>2213.1999999999998</v>
       </c>
@@ -14528,7 +14542,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10">
       <c r="A357" s="5">
         <v>2271.1</v>
       </c>
@@ -14554,7 +14568,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10">
       <c r="A358" s="5">
         <v>2271.1999999999998</v>
       </c>
@@ -14580,7 +14594,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10">
       <c r="A359" s="5">
         <v>2290.1</v>
       </c>
@@ -14606,7 +14620,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10">
       <c r="A360" s="5">
         <v>2290.1999999999998</v>
       </c>
@@ -14632,7 +14646,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10">
       <c r="A361" s="5">
         <v>2292.1</v>
       </c>
@@ -14661,7 +14675,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10">
       <c r="A362" s="5">
         <v>2292.1999999999998</v>
       </c>
@@ -14687,7 +14701,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10">
       <c r="A363" s="5">
         <v>2295.1</v>
       </c>
@@ -14713,7 +14727,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10">
       <c r="A364" s="5">
         <v>2295.1999999999998</v>
       </c>
@@ -14739,7 +14753,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10">
       <c r="A365" s="5">
         <v>2296.1</v>
       </c>
@@ -14765,7 +14779,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10">
       <c r="A366" s="5">
         <v>2296.1999999999998</v>
       </c>
@@ -14791,7 +14805,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10">
       <c r="A367" s="5">
         <v>2297.1</v>
       </c>
@@ -14817,7 +14831,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10">
       <c r="A368" s="5">
         <v>2297.1999999999998</v>
       </c>
@@ -14843,7 +14857,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10">
       <c r="A369" s="5">
         <v>2298.1</v>
       </c>
@@ -14869,7 +14883,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10">
       <c r="A370" s="5">
         <v>2298.1999999999998</v>
       </c>
@@ -14895,7 +14909,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10">
       <c r="A371" s="5">
         <v>2300.1</v>
       </c>
@@ -14921,7 +14935,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10">
       <c r="A372" s="5">
         <v>2300.1999999999998</v>
       </c>
@@ -14947,7 +14961,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10">
       <c r="A373" s="5">
         <v>2301.1</v>
       </c>
@@ -14973,7 +14987,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10">
       <c r="A374" s="5">
         <v>2301.1999999999998</v>
       </c>
@@ -14999,7 +15013,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10">
       <c r="A375" s="5">
         <v>2303.1</v>
       </c>
@@ -15025,7 +15039,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10">
       <c r="A376" s="5">
         <v>2303.1999999999998</v>
       </c>
@@ -15051,7 +15065,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10">
       <c r="A377" s="5">
         <v>2306.1</v>
       </c>
@@ -15078,7 +15092,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10">
       <c r="A378" s="5">
         <v>2306.1999999999998</v>
       </c>
@@ -15104,7 +15118,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10">
       <c r="A379" s="5">
         <v>2326.1</v>
       </c>
@@ -15130,7 +15144,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10">
       <c r="A380" s="5">
         <v>2326.1999999999998</v>
       </c>
@@ -15156,7 +15170,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10">
       <c r="A381" s="5">
         <v>2326.3000000000002</v>
       </c>
@@ -15182,7 +15196,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10">
       <c r="A382" s="5">
         <v>2327.1</v>
       </c>
@@ -15208,7 +15222,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10">
       <c r="A383" s="5">
         <v>2327.1999999999998</v>
       </c>
@@ -15234,7 +15248,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10">
       <c r="A384" s="5">
         <v>2328.1</v>
       </c>
@@ -15260,7 +15274,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10">
       <c r="A385" s="5">
         <v>2328.1999999999998</v>
       </c>
@@ -15286,7 +15300,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10">
       <c r="A386" s="5">
         <v>2329.1</v>
       </c>
@@ -15312,7 +15326,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10">
       <c r="A387" s="5">
         <v>2329.1999999999998</v>
       </c>
@@ -15338,7 +15352,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10">
       <c r="A388" s="5">
         <v>2330.1</v>
       </c>
@@ -15364,7 +15378,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10">
       <c r="A389" s="5">
         <v>2330.1999999999998</v>
       </c>
@@ -15390,7 +15404,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10">
       <c r="A390" s="5">
         <v>2331.1</v>
       </c>
@@ -15416,7 +15430,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10">
       <c r="A391" s="5">
         <v>2331.1999999999998</v>
       </c>
@@ -15442,7 +15456,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10">
       <c r="A392" s="5">
         <v>2332.1</v>
       </c>
@@ -15468,7 +15482,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10">
       <c r="A393" s="5">
         <v>2332.1999999999998</v>
       </c>
@@ -15494,7 +15508,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10">
       <c r="A394" s="5">
         <v>2333.1</v>
       </c>
@@ -15520,7 +15534,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10">
       <c r="A395" s="5">
         <v>2333.1999999999998</v>
       </c>
@@ -15546,7 +15560,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10">
       <c r="A396" s="5">
         <v>2334.1</v>
       </c>
@@ -15572,7 +15586,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10">
       <c r="A397" s="5">
         <v>2334.1999999999998</v>
       </c>
@@ -15598,7 +15612,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10">
       <c r="A398" s="5">
         <v>2335.1</v>
       </c>
@@ -15624,7 +15638,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10">
       <c r="A399" s="5">
         <v>2335.1999999999998</v>
       </c>
@@ -15650,7 +15664,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10">
       <c r="A400" s="5">
         <v>2337.1</v>
       </c>
@@ -15676,7 +15690,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10">
       <c r="A401" s="5">
         <v>2337.1999999999998</v>
       </c>
@@ -15702,7 +15716,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10">
       <c r="A402" s="5">
         <v>2338.1</v>
       </c>
@@ -15728,7 +15742,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10">
       <c r="A403" s="5">
         <v>2338.1999999999998</v>
       </c>
@@ -15754,7 +15768,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10">
       <c r="A404" s="5">
         <v>2339.1</v>
       </c>
@@ -15780,7 +15794,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10">
       <c r="A405" s="5">
         <v>2339.1999999999998</v>
       </c>
@@ -15806,7 +15820,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10">
       <c r="A406" s="5">
         <v>2341.1</v>
       </c>
@@ -15832,7 +15846,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10">
       <c r="A407" s="5">
         <v>2341.1999999999998</v>
       </c>
@@ -15858,7 +15872,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10">
       <c r="A408" s="5">
         <v>2342.1</v>
       </c>
@@ -15884,7 +15898,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10">
       <c r="A409" s="5">
         <v>2342.1999999999998</v>
       </c>
@@ -15910,7 +15924,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10">
       <c r="A410" s="5">
         <v>2343.1</v>
       </c>
@@ -15936,7 +15950,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10">
       <c r="A411" s="5">
         <v>2343.1999999999998</v>
       </c>
@@ -15962,7 +15976,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10">
       <c r="A412" s="5">
         <v>2344.1</v>
       </c>
@@ -15988,7 +16002,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10">
       <c r="A413" s="5">
         <v>2344.1999999999998</v>
       </c>
@@ -16014,7 +16028,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10">
       <c r="A414" s="5">
         <v>2345.1</v>
       </c>
@@ -16040,7 +16054,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10">
       <c r="A415" s="5">
         <v>2345.1999999999998</v>
       </c>
@@ -16066,7 +16080,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10">
       <c r="A416" s="5">
         <v>2347.1</v>
       </c>
@@ -16092,7 +16106,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10">
       <c r="A417" s="5">
         <v>2347.1999999999998</v>
       </c>
@@ -16118,7 +16132,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10">
       <c r="A418" s="5">
         <v>2348.1</v>
       </c>
@@ -16144,7 +16158,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10">
       <c r="A419" s="5">
         <v>2348.1999999999998</v>
       </c>
@@ -16167,7 +16181,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10">
       <c r="A420" s="5">
         <v>2349.1</v>
       </c>
@@ -16193,7 +16207,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10">
       <c r="A421" s="5">
         <v>2349.1999999999998</v>
       </c>
@@ -16219,7 +16233,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10">
       <c r="A422" s="5">
         <v>2350.1</v>
       </c>
@@ -16245,7 +16259,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10">
       <c r="A423" s="5">
         <v>2350.1999999999998</v>
       </c>
@@ -16271,7 +16285,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10">
       <c r="A424" s="5">
         <v>2351.1</v>
       </c>
@@ -16297,7 +16311,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10">
       <c r="A425" s="5">
         <v>2351.1999999999998</v>
       </c>
@@ -16323,7 +16337,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10">
       <c r="A426" s="5">
         <v>2352.1</v>
       </c>
@@ -16349,7 +16363,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10">
       <c r="A427" s="5">
         <v>2352.1999999999998</v>
       </c>
@@ -16375,7 +16389,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10">
       <c r="A428" s="5">
         <v>2353.1</v>
       </c>
@@ -16401,7 +16415,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10">
       <c r="A429" s="5">
         <v>2353.1999999999998</v>
       </c>
@@ -16427,7 +16441,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10">
       <c r="A430" s="5">
         <v>2354.1</v>
       </c>
@@ -16453,7 +16467,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10">
       <c r="A431" s="5">
         <v>2354.1999999999998</v>
       </c>
@@ -16479,7 +16493,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10">
       <c r="A432" s="5">
         <v>2355.1</v>
       </c>
@@ -16505,7 +16519,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10">
       <c r="A433" s="5">
         <v>2355.1999999999998</v>
       </c>
@@ -16531,7 +16545,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10">
       <c r="A434" s="5">
         <v>2356.1</v>
       </c>
@@ -16557,7 +16571,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10">
       <c r="A435" s="5">
         <v>2356.1999999999998</v>
       </c>
@@ -16583,7 +16597,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10">
       <c r="A436" s="5">
         <v>2357.1</v>
       </c>
@@ -16609,7 +16623,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10">
       <c r="A437" s="5">
         <v>2357.1999999999998</v>
       </c>
@@ -16635,7 +16649,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10">
       <c r="A438" s="5">
         <v>2358.1</v>
       </c>
@@ -16661,7 +16675,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10">
       <c r="A439" s="5">
         <v>2358.1999999999998</v>
       </c>
@@ -16687,7 +16701,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10">
       <c r="A440" s="5">
         <v>2359.1</v>
       </c>
@@ -16713,7 +16727,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10">
       <c r="A441" s="5">
         <v>2359.1999999999998</v>
       </c>
@@ -16739,7 +16753,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10">
       <c r="A442" s="5">
         <v>2360.1</v>
       </c>
@@ -16765,7 +16779,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10">
       <c r="A443" s="5">
         <v>2360.1999999999998</v>
       </c>
@@ -16788,10 +16802,10 @@
         <v>1284</v>
       </c>
       <c r="J443" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10">
       <c r="A444" s="5">
         <v>2361.1</v>
       </c>
@@ -16817,7 +16831,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10">
       <c r="A445" s="5">
         <v>2361.1999999999998</v>
       </c>
@@ -16840,7 +16854,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10">
       <c r="A446" s="5">
         <v>2362.1</v>
       </c>
@@ -16866,7 +16880,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10">
       <c r="A447" s="5">
         <v>2362.1999999999998</v>
       </c>
@@ -16892,7 +16906,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10">
       <c r="A448" s="5">
         <v>2363.1</v>
       </c>
@@ -16918,7 +16932,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9">
       <c r="A449" s="5">
         <v>2363.1999999999998</v>
       </c>
@@ -16944,7 +16958,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9">
       <c r="A450" s="5">
         <v>2364.1</v>
       </c>
@@ -16970,7 +16984,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9">
       <c r="A451" s="5">
         <v>2364.1999999999998</v>
       </c>
@@ -16996,7 +17010,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9">
       <c r="A452" s="5">
         <v>2365.1</v>
       </c>
@@ -17022,7 +17036,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9">
       <c r="A453" s="5">
         <v>2365.1999999999998</v>
       </c>
@@ -17048,7 +17062,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9">
       <c r="A454" s="5">
         <v>2376.1</v>
       </c>
@@ -17074,7 +17088,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9">
       <c r="A455" s="5">
         <v>2376.1999999999998</v>
       </c>
@@ -17100,7 +17114,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9">
       <c r="A456" s="5">
         <v>2385.1</v>
       </c>
@@ -17123,7 +17137,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9">
       <c r="A457" s="5">
         <v>2385.1999999999998</v>
       </c>
@@ -17146,7 +17160,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9">
       <c r="A458" s="5">
         <v>2518.1</v>
       </c>
@@ -17172,7 +17186,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9">
       <c r="A459" s="5">
         <v>2518.1999999999998</v>
       </c>
@@ -17198,7 +17212,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9">
       <c r="A460" s="5">
         <v>2568.1</v>
       </c>
@@ -17224,7 +17238,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9">
       <c r="A461" s="5">
         <v>2568.1999999999998</v>
       </c>
@@ -17250,7 +17264,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9">
       <c r="A462" s="5">
         <v>2652.1</v>
       </c>
@@ -17276,7 +17290,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9">
       <c r="A463" s="5">
         <v>2652.2</v>
       </c>
@@ -17302,7 +17316,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9">
       <c r="A464" s="5">
         <v>2791.1</v>
       </c>
@@ -17328,7 +17342,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9">
       <c r="A465" s="5">
         <v>2791.2</v>
       </c>
@@ -17354,7 +17368,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9">
       <c r="A466" s="5">
         <v>2791.3</v>
       </c>
@@ -17380,7 +17394,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9">
       <c r="A467" s="5">
         <v>2847.1</v>
       </c>
@@ -17406,7 +17420,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9">
       <c r="A468" s="5">
         <v>2847.2</v>
       </c>
@@ -17432,7 +17446,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9">
       <c r="A469" s="5">
         <v>2865.1</v>
       </c>
@@ -17458,7 +17472,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9">
       <c r="A470" s="5">
         <v>2865.2</v>
       </c>
@@ -17484,7 +17498,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9">
       <c r="A471" s="5">
         <v>2867.1</v>
       </c>
@@ -17510,7 +17524,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9">
       <c r="A472" s="5">
         <v>2867.2</v>
       </c>
@@ -17536,7 +17550,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9">
       <c r="A473" s="5">
         <v>2868.1</v>
       </c>
@@ -17562,7 +17576,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9">
       <c r="A474" s="5">
         <v>2868.2</v>
       </c>
@@ -17588,7 +17602,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9">
       <c r="A475" s="5">
         <v>2869.1</v>
       </c>
@@ -17614,7 +17628,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9">
       <c r="A476" s="5">
         <v>2869.2</v>
       </c>
@@ -17640,7 +17654,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9">
       <c r="A477" s="5">
         <v>2877.1</v>
       </c>
@@ -17666,7 +17680,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9">
       <c r="A478" s="5">
         <v>2877.2</v>
       </c>
@@ -17692,7 +17706,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9">
       <c r="A479" s="5">
         <v>2879.1</v>
       </c>
@@ -17718,7 +17732,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9">
       <c r="A480" s="5">
         <v>2879.2</v>
       </c>
@@ -17744,7 +17758,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10">
       <c r="A481" s="5">
         <v>2880.1</v>
       </c>
@@ -17770,7 +17784,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10">
       <c r="A482" s="5">
         <v>2880.2</v>
       </c>
@@ -17796,7 +17810,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10">
       <c r="A483" s="5">
         <v>2881.1</v>
       </c>
@@ -17822,7 +17836,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10">
       <c r="A484" s="5">
         <v>2881.2</v>
       </c>
@@ -17848,7 +17862,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10">
       <c r="A485" s="5">
         <v>2881.3</v>
       </c>
@@ -17874,7 +17888,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10">
       <c r="A486" s="5">
         <v>2882.1</v>
       </c>
@@ -17900,7 +17914,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10">
       <c r="A487" s="5">
         <v>2882.2</v>
       </c>
@@ -17926,7 +17940,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10">
       <c r="A488" s="5">
         <v>2883.1</v>
       </c>
@@ -17952,7 +17966,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10">
       <c r="A489" s="5">
         <v>2883.2</v>
       </c>
@@ -17979,7 +17993,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10">
       <c r="A490" s="5">
         <v>2883.3</v>
       </c>
@@ -18008,7 +18022,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10">
       <c r="A491" s="5">
         <v>2884.1</v>
       </c>
@@ -18034,7 +18048,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10">
       <c r="A492" s="5">
         <v>2884.2</v>
       </c>
@@ -18060,7 +18074,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10">
       <c r="A493" s="5">
         <v>2885.1</v>
       </c>
@@ -18086,7 +18100,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10">
       <c r="A494" s="5">
         <v>2885.2</v>
       </c>
@@ -18112,7 +18126,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10">
       <c r="A495" s="5">
         <v>2885.3</v>
       </c>
@@ -18138,7 +18152,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10">
       <c r="A496" s="5">
         <v>2886.1</v>
       </c>
@@ -18164,7 +18178,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9">
       <c r="A497" s="5">
         <v>2886.2</v>
       </c>
@@ -18190,7 +18204,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9">
       <c r="A498" s="5">
         <v>2887.1</v>
       </c>
@@ -18216,7 +18230,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9">
       <c r="A499" s="5">
         <v>2887.2</v>
       </c>
@@ -18242,7 +18256,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9">
       <c r="A500" s="5">
         <v>2888.1</v>
       </c>
@@ -18268,7 +18282,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9">
       <c r="A501" s="5">
         <v>2888.2</v>
       </c>
@@ -18294,7 +18308,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9">
       <c r="A502" s="5">
         <v>2888.3</v>
       </c>
@@ -18320,7 +18334,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9">
       <c r="A503" s="5">
         <v>2889.1</v>
       </c>
@@ -18346,7 +18360,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9">
       <c r="A504" s="5">
         <v>2889.2</v>
       </c>
@@ -18372,7 +18386,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9">
       <c r="A505" s="5">
         <v>2890.1</v>
       </c>
@@ -18398,7 +18412,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9">
       <c r="A506" s="5">
         <v>2890.2</v>
       </c>
@@ -18424,7 +18438,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9">
       <c r="A507" s="5">
         <v>2891.1</v>
       </c>
@@ -18450,7 +18464,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9">
       <c r="A508" s="5">
         <v>2891.2</v>
       </c>
@@ -18476,7 +18490,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9">
       <c r="A509" s="5">
         <v>2892.1</v>
       </c>
@@ -18502,7 +18516,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9">
       <c r="A510" s="5">
         <v>2892.2</v>
       </c>
@@ -18528,7 +18542,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9">
       <c r="A511" s="5">
         <v>2893.1</v>
       </c>
@@ -18554,7 +18568,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9">
       <c r="A512" s="5">
         <v>2893.2</v>
       </c>
@@ -18580,7 +18594,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10">
       <c r="A513" s="5">
         <v>2894.1</v>
       </c>
@@ -18606,7 +18620,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10">
       <c r="A514" s="5">
         <v>2894.2</v>
       </c>
@@ -18632,7 +18646,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10">
       <c r="A515" s="5">
         <v>2895.1</v>
       </c>
@@ -18658,7 +18672,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10">
       <c r="A516" s="5">
         <v>2895.2</v>
       </c>
@@ -18684,7 +18698,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10">
       <c r="A517" s="5">
         <v>2896.1</v>
       </c>
@@ -18710,7 +18724,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10">
       <c r="A518" s="5">
         <v>2896.2</v>
       </c>
@@ -18736,7 +18750,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10">
       <c r="A519" s="5">
         <v>2897.1</v>
       </c>
@@ -18762,7 +18776,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10">
       <c r="A520" s="5">
         <v>2897.2</v>
       </c>
@@ -18788,7 +18802,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10">
       <c r="A521" s="5">
         <v>2899.1</v>
       </c>
@@ -18814,7 +18828,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10">
       <c r="A522" s="5">
         <v>2899.2</v>
       </c>
@@ -18840,7 +18854,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10">
       <c r="A523" s="5">
         <v>2900.1</v>
       </c>
@@ -18866,7 +18880,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10">
       <c r="A524" s="5">
         <v>2900.2</v>
       </c>
@@ -18892,7 +18906,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10">
       <c r="A525" s="5">
         <v>2901.1</v>
       </c>
@@ -18918,7 +18932,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10">
       <c r="A526" s="5">
         <v>2901.2</v>
       </c>
@@ -18944,7 +18958,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10">
       <c r="A527" s="5">
         <v>2902.1</v>
       </c>
@@ -18970,7 +18984,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10">
       <c r="A528" s="5">
         <v>2902.2</v>
       </c>
@@ -18996,7 +19010,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10">
       <c r="A529" s="5">
         <v>2903.1</v>
       </c>
@@ -19022,7 +19036,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10">
       <c r="A530" s="5">
         <v>2903.2</v>
       </c>
@@ -19048,7 +19062,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10">
       <c r="A531" s="5">
         <v>2904.1</v>
       </c>
@@ -19074,7 +19088,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10">
       <c r="A532" s="5">
         <v>2904.2</v>
       </c>
@@ -19100,7 +19114,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10">
       <c r="A533" s="5">
         <v>2905.1</v>
       </c>
@@ -19126,7 +19140,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10">
       <c r="A534" s="5">
         <v>2905.2</v>
       </c>
@@ -19152,7 +19166,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10">
       <c r="A535" s="5">
         <v>2906.1</v>
       </c>
@@ -19178,7 +19192,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10">
       <c r="A536" s="5">
         <v>2906.2</v>
       </c>
@@ -19204,7 +19218,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10">
       <c r="A537" s="5">
         <v>2907.1</v>
       </c>
@@ -19230,7 +19244,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10">
       <c r="A538" s="5">
         <v>2907.2</v>
       </c>
@@ -19256,7 +19270,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10">
       <c r="A539" s="5">
         <v>2908.1</v>
       </c>
@@ -19282,7 +19296,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10">
       <c r="A540" s="5">
         <v>2908.2</v>
       </c>
@@ -19308,7 +19322,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10">
       <c r="A541" s="5">
         <v>2909.1</v>
       </c>
@@ -19334,7 +19348,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10">
       <c r="A542" s="5">
         <v>2909.2</v>
       </c>
@@ -19360,7 +19374,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10">
       <c r="A543" s="5">
         <v>2910.1</v>
       </c>
@@ -19386,7 +19400,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10">
       <c r="A544" s="5">
         <v>2910.2</v>
       </c>
@@ -19412,7 +19426,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10">
       <c r="A545" s="5">
         <v>2911.1</v>
       </c>
@@ -19438,7 +19452,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10">
       <c r="A546" s="5">
         <v>2911.2</v>
       </c>
@@ -19464,7 +19478,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10">
       <c r="A547" s="5">
         <v>2912.1</v>
       </c>
@@ -19490,7 +19504,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10">
       <c r="A548" s="5">
         <v>2912.2</v>
       </c>
@@ -19513,7 +19527,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10">
       <c r="A549" s="5">
         <v>2913.1</v>
       </c>
@@ -19539,7 +19553,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10">
       <c r="A550" s="5">
         <v>2913.2</v>
       </c>
@@ -19562,7 +19576,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10">
       <c r="A551" s="5">
         <v>2913.3</v>
       </c>
@@ -19588,7 +19602,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10">
       <c r="A552" s="5">
         <v>2914.1</v>
       </c>
@@ -19614,7 +19628,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10">
       <c r="A553" s="5">
         <v>2914.2</v>
       </c>
@@ -19637,7 +19651,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10">
       <c r="A554" s="5">
         <v>2915.1</v>
       </c>
@@ -19663,7 +19677,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10">
       <c r="A555" s="5">
         <v>2915.2</v>
       </c>
@@ -19686,7 +19700,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10">
       <c r="A556" s="5">
         <v>2916.1</v>
       </c>
@@ -19712,7 +19726,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10">
       <c r="A557" s="5">
         <v>2916.2</v>
       </c>
@@ -19738,7 +19752,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10">
       <c r="A558" s="5">
         <v>2917.1</v>
       </c>
@@ -19764,7 +19778,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10">
       <c r="A559" s="5">
         <v>2917.2</v>
       </c>
@@ -19790,7 +19804,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10">
       <c r="A560" s="5">
         <v>2918.1</v>
       </c>
@@ -19816,7 +19830,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10">
       <c r="A561" s="5">
         <v>2918.2</v>
       </c>
@@ -19842,7 +19856,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10">
       <c r="A562" s="5">
         <v>2919.1</v>
       </c>
@@ -19868,7 +19882,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10">
       <c r="A563" s="5">
         <v>2919.2</v>
       </c>
@@ -19894,7 +19908,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10">
       <c r="A564" s="5">
         <v>2920.1</v>
       </c>
@@ -19920,7 +19934,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10">
       <c r="A565" s="5">
         <v>2920.2</v>
       </c>
@@ -19946,7 +19960,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10">
       <c r="A566" s="5">
         <v>2921.1</v>
       </c>
@@ -19972,7 +19986,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10">
       <c r="A567" s="5">
         <v>2921.2</v>
       </c>
@@ -19998,7 +20012,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10">
       <c r="A568" s="5">
         <v>2922.1</v>
       </c>
@@ -20024,7 +20038,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10">
       <c r="A569" s="5">
         <v>2922.2</v>
       </c>
@@ -20050,7 +20064,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10">
       <c r="A570" s="5">
         <v>2923.1</v>
       </c>
@@ -20076,7 +20090,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10">
       <c r="A571" s="5">
         <v>2923.2</v>
       </c>
@@ -20102,7 +20116,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10">
       <c r="A572" s="5">
         <v>2924.1</v>
       </c>
@@ -20128,7 +20142,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10">
       <c r="A573" s="5">
         <v>2924.2</v>
       </c>
@@ -20154,7 +20168,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10">
       <c r="A574" s="5">
         <v>2925.1</v>
       </c>
@@ -20180,7 +20194,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10">
       <c r="A575" s="5">
         <v>2925.2</v>
       </c>
@@ -20206,7 +20220,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10">
       <c r="A576" s="5">
         <v>2926.1</v>
       </c>
@@ -20232,7 +20246,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10">
       <c r="A577" s="5">
         <v>2926.2</v>
       </c>
@@ -20258,7 +20272,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10">
       <c r="A578" s="5">
         <v>2927.1</v>
       </c>
@@ -20284,7 +20298,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10">
       <c r="A579" s="5">
         <v>2927.2</v>
       </c>
@@ -20310,7 +20324,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10">
       <c r="A580" s="5">
         <v>2928.1</v>
       </c>
@@ -20336,7 +20350,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10">
       <c r="A581" s="5">
         <v>2928.2</v>
       </c>
@@ -20362,7 +20376,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10">
       <c r="A582" s="5">
         <v>2929.1</v>
       </c>
@@ -20388,7 +20402,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10">
       <c r="A583" s="5">
         <v>2929.2</v>
       </c>
@@ -20414,7 +20428,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10">
       <c r="A584" s="5">
         <v>2930.1</v>
       </c>
@@ -20440,7 +20454,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10">
       <c r="A585" s="5">
         <v>2930.2</v>
       </c>
@@ -20466,7 +20480,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10">
       <c r="A586" s="5">
         <v>2931.1</v>
       </c>
@@ -20492,7 +20506,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10">
       <c r="A587" s="5">
         <v>2931.2</v>
       </c>
@@ -20518,7 +20532,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10">
       <c r="A588" s="5">
         <v>2932.1</v>
       </c>
@@ -20544,7 +20558,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10">
       <c r="A589" s="5">
         <v>2932.2</v>
       </c>
@@ -20570,7 +20584,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10">
       <c r="A590" s="5">
         <v>2933.1</v>
       </c>
@@ -20596,7 +20610,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10">
       <c r="A591" s="5">
         <v>2933.2</v>
       </c>
@@ -20622,7 +20636,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10">
       <c r="A592" s="5">
         <v>2934.1</v>
       </c>
@@ -20648,7 +20662,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10">
       <c r="A593" s="5">
         <v>2934.2</v>
       </c>
@@ -20674,7 +20688,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10">
       <c r="A594" s="5">
         <v>2935.1</v>
       </c>
@@ -20700,7 +20714,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10">
       <c r="A595" s="5">
         <v>2935.2</v>
       </c>
@@ -20726,7 +20740,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10">
       <c r="A596" s="5">
         <v>2936.1</v>
       </c>
@@ -20752,7 +20766,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10">
       <c r="A597" s="5">
         <v>2936.2</v>
       </c>
@@ -20778,7 +20792,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10">
       <c r="A598" s="5">
         <v>2937.1</v>
       </c>
@@ -20804,7 +20818,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10">
       <c r="A599" s="5">
         <v>2937.2</v>
       </c>
@@ -20830,7 +20844,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10">
       <c r="A600" s="5">
         <v>2938.1</v>
       </c>
@@ -20856,7 +20870,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10">
       <c r="A601" s="5">
         <v>2938.2</v>
       </c>
@@ -20882,7 +20896,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10">
       <c r="A602" s="5">
         <v>2939.1</v>
       </c>
@@ -20908,7 +20922,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10">
       <c r="A603" s="5">
         <v>2939.2</v>
       </c>
@@ -20934,7 +20948,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10">
       <c r="A604" s="5">
         <v>2940.1</v>
       </c>
@@ -20960,7 +20974,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10">
       <c r="A605" s="5">
         <v>2940.2</v>
       </c>
@@ -20986,7 +21000,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10">
       <c r="A606" s="5">
         <v>2980.1</v>
       </c>
@@ -21012,7 +21026,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10">
       <c r="A607" s="5">
         <v>2980.2</v>
       </c>
@@ -21038,7 +21052,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10">
       <c r="A608" s="5">
         <v>3054.1</v>
       </c>
@@ -21064,7 +21078,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9">
       <c r="A609" s="5">
         <v>3054.2</v>
       </c>
@@ -21090,7 +21104,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9">
       <c r="A610" s="5">
         <v>3061.1</v>
       </c>
@@ -21116,7 +21130,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9">
       <c r="A611" s="5">
         <v>3061.2</v>
       </c>
@@ -21142,7 +21156,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9">
       <c r="A612" s="5">
         <v>3102.1</v>
       </c>
@@ -21168,7 +21182,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:9">
       <c r="A613" s="5">
         <v>3102.2</v>
       </c>
@@ -21194,7 +21208,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:9">
       <c r="A614" s="5">
         <v>3106.1</v>
       </c>
@@ -21220,7 +21234,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:9">
       <c r="A615" s="5">
         <v>3106.2</v>
       </c>
@@ -21246,7 +21260,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9">
       <c r="A616" s="5">
         <v>3106.3</v>
       </c>
@@ -21272,7 +21286,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:9">
       <c r="A617" s="5">
         <v>3114.1</v>
       </c>
@@ -21298,7 +21312,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9">
       <c r="A618" s="5">
         <v>3114.2</v>
       </c>
@@ -21324,7 +21338,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9">
       <c r="A619" s="5">
         <v>3114.3</v>
       </c>
@@ -21350,7 +21364,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:9">
       <c r="A620" s="5">
         <v>3115.1</v>
       </c>
@@ -21376,7 +21390,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:9">
       <c r="A621" s="5">
         <v>3115.2</v>
       </c>
@@ -21402,7 +21416,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:9">
       <c r="A622" s="5">
         <v>3115.3</v>
       </c>
@@ -21428,7 +21442,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:9">
       <c r="A623" s="5">
         <v>3116.1</v>
       </c>
@@ -21454,7 +21468,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:9">
       <c r="A624" s="5">
         <v>3116.2</v>
       </c>
@@ -21480,7 +21494,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10">
       <c r="A625" s="5">
         <v>3118.1</v>
       </c>
@@ -21506,7 +21520,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10">
       <c r="A626" s="5">
         <v>3118.2</v>
       </c>
@@ -21532,7 +21546,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10">
       <c r="A627" s="5">
         <v>3118.3</v>
       </c>
@@ -21558,7 +21572,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10">
       <c r="A628" s="5">
         <v>3119.1</v>
       </c>
@@ -21584,7 +21598,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10">
       <c r="A629" s="5">
         <v>3119.2</v>
       </c>
@@ -21610,7 +21624,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10">
       <c r="A630" s="5">
         <v>3120.1</v>
       </c>
@@ -21636,7 +21650,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10">
       <c r="A631" s="5">
         <v>3120.2</v>
       </c>
@@ -21662,7 +21676,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10">
       <c r="A632" s="5">
         <v>3120.3</v>
       </c>
@@ -21688,7 +21702,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10">
       <c r="A633" s="5">
         <v>3121.1</v>
       </c>
@@ -21714,7 +21728,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10">
       <c r="A634" s="5">
         <v>3121.2</v>
       </c>
@@ -21740,7 +21754,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10">
       <c r="A635" s="5">
         <v>3121.3</v>
       </c>
@@ -21766,7 +21780,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10">
       <c r="A636" s="5">
         <v>3122.1</v>
       </c>
@@ -21792,7 +21806,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10">
       <c r="A637" s="5">
         <v>3122.2</v>
       </c>
@@ -21818,7 +21832,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10">
       <c r="A638" s="5">
         <v>3122.3</v>
       </c>
@@ -21844,7 +21858,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10">
       <c r="A639" s="5">
         <v>3123.1</v>
       </c>
@@ -21873,7 +21887,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10">
       <c r="A640" s="5">
         <v>3123.2</v>
       </c>
@@ -21899,7 +21913,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10">
       <c r="A641" s="5">
         <v>3125.1</v>
       </c>
@@ -21925,7 +21939,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10">
       <c r="A642" s="5">
         <v>3125.2</v>
       </c>
@@ -21951,7 +21965,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10">
       <c r="A643" s="5">
         <v>3127.1</v>
       </c>
@@ -21977,7 +21991,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10">
       <c r="A644" s="5">
         <v>3127.2</v>
       </c>
@@ -22003,7 +22017,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10">
       <c r="A645" s="5">
         <v>3128.1</v>
       </c>
@@ -22029,7 +22043,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10">
       <c r="A646" s="5">
         <v>3128.2</v>
       </c>
@@ -22055,7 +22069,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10">
       <c r="A647" s="5">
         <v>3131.1</v>
       </c>
@@ -22081,7 +22095,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10">
       <c r="A648" s="5">
         <v>3131.2</v>
       </c>
@@ -22110,7 +22124,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10">
       <c r="A649" s="5">
         <v>3132.1</v>
       </c>
@@ -22136,7 +22150,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10">
       <c r="A650" s="5">
         <v>3132.2</v>
       </c>
@@ -22165,7 +22179,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10">
       <c r="A651" s="5">
         <v>3133.1</v>
       </c>
@@ -22191,7 +22205,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10">
       <c r="A652" s="5">
         <v>3133.2</v>
       </c>
@@ -22217,7 +22231,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10">
       <c r="A653" s="5">
         <v>3133.3</v>
       </c>
@@ -22243,7 +22257,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10">
       <c r="A654" s="5">
         <v>3196.1</v>
       </c>
@@ -22269,7 +22283,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10">
       <c r="A655" s="5">
         <v>3196.2</v>
       </c>
@@ -22295,7 +22309,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10">
       <c r="A656" s="5">
         <v>3197.1</v>
       </c>
@@ -22321,7 +22335,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10">
       <c r="A657" s="5">
         <v>3197.2</v>
       </c>
@@ -22347,7 +22361,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10">
       <c r="A658" s="5">
         <v>3203.1</v>
       </c>
@@ -22370,7 +22384,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10">
       <c r="A659" s="5">
         <v>3203.2</v>
       </c>
@@ -22396,7 +22410,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10">
       <c r="A660" s="5">
         <v>3292.1</v>
       </c>
@@ -22422,7 +22436,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10">
       <c r="A661" s="5">
         <v>3292.2</v>
       </c>
@@ -22448,7 +22462,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10">
       <c r="A662" s="5">
         <v>3292.3</v>
       </c>
@@ -22474,7 +22488,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10">
       <c r="A663" s="5">
         <v>3297.1</v>
       </c>
@@ -22500,7 +22514,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10">
       <c r="A664" s="5">
         <v>3297.2</v>
       </c>
@@ -22526,7 +22540,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10">
       <c r="A665" s="5">
         <v>3297.3</v>
       </c>
@@ -22552,7 +22566,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10">
       <c r="A666" s="5">
         <v>3314.1</v>
       </c>
@@ -22578,7 +22592,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10">
       <c r="A667" s="5">
         <v>3314.2</v>
       </c>
@@ -22595,16 +22609,16 @@
         <v>4</v>
       </c>
       <c r="G667" s="6" t="s">
-        <v>372</v>
+        <v>1370</v>
+      </c>
+      <c r="H667" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="I667" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J667" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10">
       <c r="A668" s="5">
         <v>3317.1</v>
       </c>
@@ -22630,7 +22644,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10">
       <c r="A669" s="5">
         <v>3317.2</v>
       </c>
@@ -22659,7 +22673,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10">
       <c r="A670" s="5">
         <v>3317.3</v>
       </c>
@@ -22685,7 +22699,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10">
       <c r="A671" s="5">
         <v>3320.1</v>
       </c>
@@ -22711,7 +22725,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10">
       <c r="A672" s="5">
         <v>3320.2</v>
       </c>
@@ -22737,7 +22751,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10">
       <c r="A673" s="5">
         <v>3320.3</v>
       </c>
@@ -22763,7 +22777,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10">
       <c r="A674" s="5">
         <v>3330.1</v>
       </c>
@@ -22786,7 +22800,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10">
       <c r="A675" s="5">
         <v>3330.2</v>
       </c>
@@ -22812,7 +22826,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10">
       <c r="A676" s="5">
         <v>3338.1</v>
       </c>
@@ -22838,7 +22852,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10">
       <c r="A677" s="5">
         <v>3338.2</v>
       </c>
@@ -22864,7 +22878,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10">
       <c r="A678" s="5">
         <v>3339.1</v>
       </c>
@@ -22883,11 +22897,14 @@
       <c r="G678" s="6" t="s">
         <v>726</v>
       </c>
+      <c r="H678" s="4" t="s">
+        <v>1367</v>
+      </c>
       <c r="I678" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10">
       <c r="A679" s="5">
         <v>3339.2</v>
       </c>
@@ -22906,14 +22923,14 @@
       <c r="G679" s="6" t="s">
         <v>372</v>
       </c>
+      <c r="H679" s="4" t="s">
+        <v>1369</v>
+      </c>
       <c r="I679" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J679" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
       <c r="A680" s="5">
         <v>3340.1</v>
       </c>
@@ -22932,11 +22949,14 @@
       <c r="G680" s="6" t="s">
         <v>726</v>
       </c>
+      <c r="H680" s="4" t="s">
+        <v>1367</v>
+      </c>
       <c r="I680" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10">
       <c r="A681" s="5">
         <v>3340.2</v>
       </c>
@@ -22955,14 +22975,14 @@
       <c r="G681" s="6" t="s">
         <v>372</v>
       </c>
+      <c r="H681" s="4" t="s">
+        <v>1029</v>
+      </c>
       <c r="I681" s="4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J681" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10">
       <c r="A682" s="5">
         <v>4799.1000000000004</v>
       </c>
@@ -22991,7 +23011,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10">
       <c r="A683" s="5">
         <v>4799.2</v>
       </c>
@@ -23020,7 +23040,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10">
       <c r="A684" s="5">
         <v>4799.3</v>
       </c>
@@ -23043,7 +23063,7 @@
         <v>972</v>
       </c>
       <c r="H684" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I684" s="8" t="s">
         <v>1089</v>
@@ -23052,7 +23072,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10">
       <c r="A685" s="5">
         <v>4862.1000000000004</v>
       </c>
@@ -23081,7 +23101,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10">
       <c r="A686" s="5">
         <v>4862.2</v>
       </c>
@@ -23110,7 +23130,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10">
       <c r="A687" s="5">
         <v>4862.3</v>
       </c>
@@ -23133,7 +23153,7 @@
         <v>975</v>
       </c>
       <c r="H687" s="8" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I687" s="8" t="s">
         <v>1089</v>
@@ -23142,7 +23162,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10">
       <c r="A688" s="5">
         <v>4864.1000000000004</v>
       </c>
@@ -23162,7 +23182,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:9">
       <c r="A689" s="5">
         <v>4864.2</v>
       </c>
@@ -23182,7 +23202,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:9">
       <c r="A690" s="5">
         <v>4864.3</v>
       </c>
@@ -23196,13 +23216,13 @@
         <v>939</v>
       </c>
       <c r="H690" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I690" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:9">
       <c r="A691" s="5">
         <v>4864.3999999999996</v>
       </c>
@@ -23216,13 +23236,13 @@
         <v>973</v>
       </c>
       <c r="H691" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I691" s="4" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:9">
       <c r="A692" s="5">
         <v>5096.1000000000004</v>
       </c>
@@ -23251,7 +23271,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:9">
       <c r="A693" s="5">
         <v>5096.2</v>
       </c>
@@ -23280,7 +23300,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:9">
       <c r="A694" s="5">
         <v>5099.1000000000004</v>
       </c>
@@ -23309,7 +23329,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:9">
       <c r="A695" s="5">
         <v>5099.2</v>
       </c>
@@ -23338,7 +23358,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:9">
       <c r="A696" s="5">
         <v>5101.1000000000004</v>
       </c>
@@ -23367,7 +23387,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:9">
       <c r="A697" s="5">
         <v>5101.2</v>
       </c>
@@ -23396,7 +23416,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:9">
       <c r="A698" s="5">
         <v>5102.1000000000004</v>
       </c>
@@ -23425,7 +23445,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:9">
       <c r="A699" s="5">
         <v>5102.2</v>
       </c>
@@ -23448,13 +23468,13 @@
         <v>983</v>
       </c>
       <c r="H699" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I699" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:9">
       <c r="A700" s="5">
         <v>5116.1000000000004</v>
       </c>
@@ -23483,7 +23503,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:9">
       <c r="A701" s="5">
         <v>5116.2</v>
       </c>
@@ -23506,13 +23526,13 @@
         <v>985</v>
       </c>
       <c r="H701" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I701" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:9">
       <c r="A702" s="5">
         <v>7587.1</v>
       </c>
@@ -23535,13 +23555,13 @@
         <v>987</v>
       </c>
       <c r="H702" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I702" s="4" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:9">
       <c r="A703" s="5">
         <v>7587.2</v>
       </c>
